--- a/biology/Botanique/Salix_mielichhoferi/Salix_mielichhoferi.xlsx
+++ b/biology/Botanique/Salix_mielichhoferi/Salix_mielichhoferi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix mielichhoferi, le saule de Mielichhofer, est une espèce de saule de la famille des Salicaceae, originaire des zones subalpines des Alpes centrales, en Autriche et en Italie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix mielichhoferi, le saule de Mielichhofer, est une espèce de saule de la famille des Salicaceae, originaire des zones subalpines des Alpes centrales, en Autriche et en Italie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tauern-Weide en allemand.</t>
         </is>
@@ -541,12 +555,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix mielichhoferi se présente comme un arbuste atteignant de 1 à 4 mètres de haut.
 Le limbe des feuilles mesure de 3 à 10 cm de long. Les nervures sont proéminentes sur la face inférieure.
 La floraison intervient entre mai et juillet, avant le développement des feuilles.
-Chromosomie : 2n = 114. Population italienne : 2n=152[1].
+Chromosomie : 2n = 114. Population italienne : 2n=152.
 </t>
         </is>
       </c>
